--- a/artfynd/A 3472-2023.xlsx
+++ b/artfynd/A 3472-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,6 +2341,458 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112517708</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88167</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6268</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rökmusseron</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tricholoma fucatum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Kumm.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Hästhagen (Hästhagen), Upl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>694872</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6623216</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skederid</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112517102</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99874</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Hästhagen (Hästhagen), Upl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>695073</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6623049</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Skederid</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:37</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:37</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112517026</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90480</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Hästhagen (Hästhagen), Upl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>695238</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6622997</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Skederid</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112519828</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89564</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1205</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Stor aspticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phellinus populicola</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Hästhagen (Hästhagen), Upl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>694882</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6623059</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Skederid</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Viktor Lund</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3472-2023.xlsx
+++ b/artfynd/A 3472-2023.xlsx
@@ -2343,10 +2343,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112517708</v>
+        <v>112517102</v>
       </c>
       <c r="B16" t="n">
-        <v>88167</v>
+        <v>99874</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6268</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rökmusseron</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tricholoma fucatum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Kumm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>694872</v>
+        <v>695073</v>
       </c>
       <c r="R16" t="n">
-        <v>6623216</v>
+        <v>6623049</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2456,10 +2456,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112517102</v>
+        <v>112517026</v>
       </c>
       <c r="B17" t="n">
-        <v>99874</v>
+        <v>90480</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2472,21 +2472,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695073</v>
+        <v>695238</v>
       </c>
       <c r="R17" t="n">
-        <v>6623049</v>
+        <v>6622997</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2569,10 +2569,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112517026</v>
+        <v>112517708</v>
       </c>
       <c r="B18" t="n">
-        <v>90480</v>
+        <v>88167</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2585,21 +2585,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>6268</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rökmusseron</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Tricholoma fucatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Kumm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695238</v>
+        <v>694872</v>
       </c>
       <c r="R18" t="n">
-        <v>6622997</v>
+        <v>6623216</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 3472-2023.xlsx
+++ b/artfynd/A 3472-2023.xlsx
@@ -2343,10 +2343,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112517102</v>
+        <v>112519828</v>
       </c>
       <c r="B16" t="n">
-        <v>99874</v>
+        <v>89564</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>1205</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695073</v>
+        <v>694882</v>
       </c>
       <c r="R16" t="n">
-        <v>6623049</v>
+        <v>6623059</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2682,10 +2682,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112519828</v>
+        <v>112517102</v>
       </c>
       <c r="B19" t="n">
-        <v>89564</v>
+        <v>99874</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2698,21 +2698,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1205</v>
+        <v>221235</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>694882</v>
+        <v>695073</v>
       </c>
       <c r="R19" t="n">
-        <v>6623059</v>
+        <v>6623049</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AD19" t="b">
